--- a/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 2/Báo cáo công việc T2 - Tuấn.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 2/Báo cáo công việc T2 - Tuấn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BHSX09\VNET\5. WS\1. Bộ phận bảo hành\2. Báo cáo công việc\Năm 2021\Tháng 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\2. Báo cáo công việc\Năm 2021\Tháng 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -201,8 +201,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +273,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -392,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,6 +444,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -445,12 +460,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -477,7 +486,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -762,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,16 +788,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -818,7 +827,7 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -835,7 +844,7 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -855,7 +864,7 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -871,8 +880,8 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="2"/>
@@ -908,7 +917,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>1100</v>
       </c>
       <c r="E8" s="2"/>
@@ -924,7 +933,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="30"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -938,23 +947,23 @@
         <v>31</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="21"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1055,16 +1064,16 @@
       <c r="H20" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
     </row>
     <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -1165,16 +1174,16 @@
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="22"/>
     </row>
     <row r="32" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1242,7 +1251,7 @@
         <v>29</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="20">
+      <c r="D35" s="17">
         <v>5600</v>
       </c>
       <c r="E35" s="2"/>
@@ -1258,7 +1267,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="30"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -1272,7 +1281,7 @@
         <v>29</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="30"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -1286,7 +1295,7 @@
         <v>29</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="21"/>
+      <c r="D38" s="19"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -1331,22 +1340,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -1450,45 +1459,45 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+      <c r="A10" s="28">
         <v>7</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
     </row>
     <row r="18" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
     </row>
     <row r="19" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
